--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23070" windowHeight="13040"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterSkill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>//Remark</t>
   </si>
@@ -28,13 +28,22 @@
     <t>desc</t>
   </si>
   <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>Water</t>
+    <t>Elemental Bolt</t>
+  </si>
+  <si>
+    <t>Strike</t>
   </si>
 </sst>
 </file>
@@ -1002,13 +1011,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
@@ -1019,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1029,34 +1038,56 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>11001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>3001</v>
+        <v>21001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1070,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -1070,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>1</v>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>//Remark</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Elemental Bolt</t>
+  </si>
+  <si>
+    <t>Fire Ball</t>
   </si>
   <si>
     <t>Strike</t>
@@ -1011,13 +1014,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
@@ -1073,21 +1076,35 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>21001</v>
+        <v>12001</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>21001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>//Remark</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Strike</t>
+  </si>
+  <si>
+    <t>Wind Chop</t>
   </si>
 </sst>
 </file>
@@ -1014,13 +1017,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
@@ -1107,6 +1110,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>22001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>//Remark</t>
   </si>
@@ -28,28 +28,64 @@
     <t>desc</t>
   </si>
   <si>
+    <t>element</t>
+  </si>
+  <si>
     <t>range</t>
   </si>
   <si>
     <t>radius</t>
   </si>
   <si>
+    <t>regionType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>Elemental Bolt</t>
+    <t>enum|SkillElementType</t>
+  </si>
+  <si>
+    <t>enum|SkillRegionType</t>
+  </si>
+  <si>
+    <t>Elemental Ball</t>
+  </si>
+  <si>
+    <t>Use elemental ball to attack single foe.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Circle</t>
   </si>
   <si>
     <t>Fire Ball</t>
   </si>
   <si>
+    <t>Use fire ball to attack multiple foe.</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
     <t>Strike</t>
   </si>
   <si>
+    <t>Use weapon to strike a foe.</t>
+  </si>
+  <si>
     <t>Wind Chop</t>
+  </si>
+  <si>
+    <t>Cut the foes around you.</t>
+  </si>
+  <si>
+    <t>Square</t>
   </si>
 </sst>
 </file>
@@ -1017,16 +1053,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="22.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="20.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1034,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1050,78 +1088,126 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>11001</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>12001</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>21001</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>22001</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>11001</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>12001</v>
+        <v>1101</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21001</v>
+        <v>2001</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22001</v>
+        <v>2101</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>//Remark</t>
   </si>
@@ -40,6 +40,9 @@
     <t>regionType</t>
   </si>
   <si>
+    <t>isTargetFoe</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>enum|SkillRegionType</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>Elemental Ball</t>
@@ -1053,18 +1059,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="22.4545454545455" customWidth="1"/>
     <col min="7" max="7" width="20.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="12.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1072,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1094,42 +1101,48 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1138,21 +1151,24 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1161,21 +1177,24 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1184,21 +1203,24 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2101</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1207,7 +1229,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>//Remark</t>
   </si>
@@ -28,6 +28,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>costSP</t>
+  </si>
+  <si>
     <t>element</t>
   </si>
   <si>
@@ -73,10 +76,16 @@
     <t>Fire Ball</t>
   </si>
   <si>
-    <t>Use fire ball to attack multiple foe.</t>
+    <t>Use fire ball to attack multiple foes.</t>
   </si>
   <si>
     <t>Sun</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>Summon fire vortex to burn multiple foes.</t>
   </si>
   <si>
     <t>Strike</t>
@@ -1059,19 +1068,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="22.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="20.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="42.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="7.36363636363636" customWidth="1"/>
+    <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="20.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="12.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1079,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1104,134 +1114,181 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="b">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>2001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>2001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>2101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="b">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -1193,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>21</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>2</v>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterSkill" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>desc</t>
   </si>
   <si>
-    <t>costSP</t>
+    <t>costAP</t>
   </si>
   <si>
     <t>element</t>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -122,34 +122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -163,14 +135,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,6 +179,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -260,7 +239,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,49 +275,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,121 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,21 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,6 +498,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,148 +571,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -723,52 +723,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>//Remark</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>isTargetFoe</t>
+  </si>
+  <si>
+    <t>isNormalAttack</t>
+  </si>
+  <si>
+    <t>characterID</t>
   </si>
   <si>
     <t>int</t>
@@ -1068,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -1082,6 +1088,8 @@
     <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
     <col min="8" max="8" width="20.8181818181818" customWidth="1"/>
     <col min="9" max="9" width="12.3636363636364" customWidth="1"/>
+    <col min="10" max="10" width="16.6363636363636" customWidth="1"/>
+    <col min="11" max="11" width="15.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1089,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1117,51 +1125,63 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1170,27 +1190,33 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1199,27 +1225,33 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1228,27 +1260,33 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1257,27 +1295,33 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2001</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2101</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1286,10 +1330,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>//Remark</t>
   </si>
@@ -37,15 +37,24 @@
     <t>range</t>
   </si>
   <si>
+    <t>isRangeSelf</t>
+  </si>
+  <si>
     <t>radius</t>
   </si>
   <si>
     <t>regionType</t>
   </si>
   <si>
+    <t>damageType</t>
+  </si>
+  <si>
     <t>isTargetFoe</t>
   </si>
   <si>
+    <t>isTargetCharacter</t>
+  </si>
+  <si>
     <t>isNormalAttack</t>
   </si>
   <si>
@@ -61,10 +70,13 @@
     <t>enum|SkillElementType</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>enum|SkillRegionType</t>
   </si>
   <si>
-    <t>bool</t>
+    <t>enum|SkillDamageType</t>
   </si>
   <si>
     <t>Elemental Ball</t>
@@ -79,6 +91,9 @@
     <t>Circle</t>
   </si>
   <si>
+    <t>Magic</t>
+  </si>
+  <si>
     <t>Fire Ball</t>
   </si>
   <si>
@@ -98,6 +113,9 @@
   </si>
   <si>
     <t>Use weapon to strike a foe.</t>
+  </si>
+  <si>
+    <t>Physical</t>
   </si>
   <si>
     <t>Wind Chop</t>
@@ -272,12 +290,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -598,7 +622,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,16 +646,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -640,90 +664,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -1086,10 +1113,12 @@
     <col min="3" max="3" width="42.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="7.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="20.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="12.3636363636364" customWidth="1"/>
-    <col min="10" max="10" width="16.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="15.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
+    <col min="9" max="10" width="20.8181818181818" customWidth="1"/>
+    <col min="11" max="11" width="12.3636363636364" customWidth="1"/>
+    <col min="12" max="12" width="18.1818181818182" customWidth="1"/>
+    <col min="13" max="13" width="16.6363636363636" customWidth="1"/>
+    <col min="14" max="14" width="15.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1097,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1113,16 +1142,16 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
@@ -1131,214 +1160,277 @@
       <c r="K2" t="s">
         <v>11</v>
       </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
+      <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2101</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>2001</v>
       </c>
     </row>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>//Remark</t>
   </si>
@@ -49,10 +49,19 @@
     <t>damageType</t>
   </si>
   <si>
-    <t>isTargetFoe</t>
-  </si>
-  <si>
-    <t>isTargetCharacter</t>
+    <t>damageDelta</t>
+  </si>
+  <si>
+    <t>damageDeltaStd</t>
+  </si>
+  <si>
+    <t>foeEffect</t>
+  </si>
+  <si>
+    <t>characterEffect</t>
+  </si>
+  <si>
+    <t>plantEffect</t>
   </si>
   <si>
     <t>isNormalAttack</t>
@@ -79,6 +88,12 @@
     <t>enum|SkillDamageType</t>
   </si>
   <si>
+    <t>enum|SkillDamageDeltaStd</t>
+  </si>
+  <si>
+    <t>enum|SkillEffectType</t>
+  </si>
+  <si>
     <t>Elemental Ball</t>
   </si>
   <si>
@@ -94,6 +109,12 @@
     <t>Magic</t>
   </si>
   <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
     <t>Fire Ball</t>
   </si>
   <si>
@@ -125,6 +146,24 @@
   </si>
   <si>
     <t>Square</t>
+  </si>
+  <si>
+    <t>Self Heal</t>
+  </si>
+  <si>
+    <t>Self Heal for 20% HP.</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>MAXHP</t>
+  </si>
+  <si>
+    <t>Help</t>
   </si>
 </sst>
 </file>
@@ -290,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +339,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +673,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,16 +697,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -664,93 +715,99 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,13 +1158,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="42.2727272727273" customWidth="1"/>
@@ -1115,10 +1174,11 @@
     <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
     <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
     <col min="9" max="10" width="20.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="12.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="18.1818181818182" customWidth="1"/>
-    <col min="13" max="13" width="16.6363636363636" customWidth="1"/>
-    <col min="14" max="14" width="15.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="11.7272727272727" customWidth="1"/>
+    <col min="12" max="12" width="25.8181818181818" customWidth="1"/>
+    <col min="13" max="15" width="20.8181818181818" customWidth="1"/>
+    <col min="16" max="16" width="16.6363636363636" customWidth="1"/>
+    <col min="17" max="17" width="15.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1126,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1154,81 +1214,99 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1240,39 +1318,48 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="b">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4">
+      <c r="Q4">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1284,39 +1371,48 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="b">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1328,39 +1424,48 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="b">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1372,39 +1477,48 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="b">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7">
+      <c r="Q7">
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>2101</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1416,21 +1530,83 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="b">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>2201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="L8" t="b">
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="M8" t="b">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>2001</v>
       </c>
     </row>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -1163,7 +1163,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J10" sqref="J10"/>
+      <selection pane="topRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1545,7 +1545,7 @@
         <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
         <v>28</v>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>//Remark</t>
   </si>
@@ -64,6 +64,9 @@
     <t>plantEffect</t>
   </si>
   <si>
+    <t>skillSubjectType</t>
+  </si>
+  <si>
     <t>isNormalAttack</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>enum|SkillEffectType</t>
   </si>
   <si>
+    <t>enum|BattleUnitType</t>
+  </si>
+  <si>
     <t>Elemental Ball</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
   </si>
   <si>
     <t>Harm</t>
+  </si>
+  <si>
+    <t>Character</t>
   </si>
   <si>
     <t>Fire Ball</t>
@@ -176,10 +185,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -667,140 +682,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +826,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,12 +1179,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1177,8 +1198,9 @@
     <col min="11" max="11" width="11.7272727272727" customWidth="1"/>
     <col min="12" max="12" width="25.8181818181818" customWidth="1"/>
     <col min="13" max="15" width="20.8181818181818" customWidth="1"/>
-    <col min="16" max="16" width="16.6363636363636" customWidth="1"/>
-    <col min="17" max="17" width="15.9090909090909" customWidth="1"/>
+    <col min="16" max="16" width="20.8181818181818" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6363636363636" customWidth="1"/>
+    <col min="18" max="18" width="15.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1186,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1202,111 +1224,117 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Q2" t="s">
         <v>17</v>
       </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1318,48 +1346,51 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="b">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1371,48 +1402,51 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <v>200</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="b">
+        <v>34</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1424,48 +1458,51 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>300</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="b">
+        <v>34</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1477,48 +1514,51 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>120</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" t="b">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="b">
         <v>1</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>2101</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1530,48 +1570,51 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
         <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
       </c>
       <c r="K8">
         <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" t="b">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="b">
         <v>0</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>2201</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1583,30 +1626,33 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" t="b">
+        <v>30</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="b">
         <v>0</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2001</v>
       </c>
     </row>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>//Remark</t>
   </si>
@@ -46,6 +46,15 @@
     <t>regionType</t>
   </si>
   <si>
+    <t>foeEffect</t>
+  </si>
+  <si>
+    <t>characterEffect</t>
+  </si>
+  <si>
+    <t>plantEffect</t>
+  </si>
+  <si>
     <t>damageType</t>
   </si>
   <si>
@@ -55,15 +64,6 @@
     <t>damageDeltaStd</t>
   </si>
   <si>
-    <t>foeEffect</t>
-  </si>
-  <si>
-    <t>characterEffect</t>
-  </si>
-  <si>
-    <t>plantEffect</t>
-  </si>
-  <si>
     <t>skillSubjectType</t>
   </si>
   <si>
@@ -88,15 +88,15 @@
     <t>enum|SkillRegionType</t>
   </si>
   <si>
+    <t>enum|SkillEffectType</t>
+  </si>
+  <si>
     <t>enum|SkillDamageType</t>
   </si>
   <si>
     <t>enum|SkillDamageDeltaStd</t>
   </si>
   <si>
-    <t>enum|SkillEffectType</t>
-  </si>
-  <si>
     <t>enum|BattleUnitType</t>
   </si>
   <si>
@@ -112,15 +112,15 @@
     <t>Circle</t>
   </si>
   <si>
+    <t>Harm</t>
+  </si>
+  <si>
     <t>Magic</t>
   </si>
   <si>
     <t>ATK</t>
   </si>
   <si>
-    <t>Harm</t>
-  </si>
-  <si>
     <t>Character</t>
   </si>
   <si>
@@ -166,13 +166,19 @@
     <t>Moon</t>
   </si>
   <si>
+    <t>Help</t>
+  </si>
+  <si>
     <t>Real</t>
   </si>
   <si>
     <t>MAXHP</t>
   </si>
   <si>
-    <t>Help</t>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>Foe</t>
   </si>
 </sst>
 </file>
@@ -359,13 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,9 +832,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,12 +1182,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1194,10 +1197,9 @@
     <col min="4" max="4" width="7.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
     <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
-    <col min="9" max="10" width="20.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="11.7272727272727" customWidth="1"/>
-    <col min="12" max="12" width="25.8181818181818" customWidth="1"/>
-    <col min="13" max="15" width="20.8181818181818" customWidth="1"/>
+    <col min="9" max="13" width="20.8181818181818" customWidth="1"/>
+    <col min="14" max="14" width="11.7272727272727" customWidth="1"/>
+    <col min="15" max="15" width="25.8181818181818" customWidth="1"/>
     <col min="16" max="16" width="20.8181818181818" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.6363636363636" customWidth="1"/>
     <col min="18" max="18" width="15.9090909090909" customWidth="1"/>
@@ -1254,7 +1256,7 @@
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q2" t="s">
@@ -1296,21 +1298,21 @@
         <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q3" t="s">
@@ -1351,20 +1353,20 @@
       <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4">
         <v>100</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>35</v>
@@ -1407,17 +1409,17 @@
       <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5">
         <v>200</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
@@ -1463,17 +1465,17 @@
       <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6">
         <v>300</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
       </c>
       <c r="O6" t="s">
         <v>34</v>
@@ -1517,22 +1519,22 @@
         <v>31</v>
       </c>
       <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
         <v>43</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>120</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>35</v>
@@ -1573,22 +1575,22 @@
         <v>46</v>
       </c>
       <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
         <v>43</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>34</v>
-      </c>
-      <c r="N8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" t="s">
-        <v>30</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>35</v>
@@ -1629,22 +1631,22 @@
         <v>31</v>
       </c>
       <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
         <v>50</v>
       </c>
-      <c r="K9">
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9">
         <v>20</v>
       </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>52</v>
-      </c>
-      <c r="O9" t="s">
-        <v>30</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>35</v>
@@ -1654,6 +1656,56 @@
       </c>
       <c r="R9">
         <v>2001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>9001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>//Remark</t>
   </si>
@@ -64,6 +64,9 @@
     <t>damageDeltaStd</t>
   </si>
   <si>
+    <t>listSpecialEffect</t>
+  </si>
+  <si>
     <t>skillSubjectType</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>enum|SkillDamageDeltaStd</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>enum|BattleUnitType</t>
   </si>
   <si>
@@ -173,6 +179,15 @@
   </si>
   <si>
     <t>MAXHP</t>
+  </si>
+  <si>
+    <t>Inspire</t>
+  </si>
+  <si>
+    <t>Regain AP by 1.</t>
+  </si>
+  <si>
+    <t>Star</t>
   </si>
   <si>
     <t>Bite</t>
@@ -350,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +715,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,16 +739,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -736,89 +757,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +853,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,12 +1206,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O13" sqref="O13"/>
+      <selection pane="topRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1199,10 +1223,10 @@
     <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
     <col min="9" max="13" width="20.8181818181818" customWidth="1"/>
     <col min="14" max="14" width="11.7272727272727" customWidth="1"/>
-    <col min="15" max="15" width="25.8181818181818" customWidth="1"/>
-    <col min="16" max="16" width="20.8181818181818" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6363636363636" customWidth="1"/>
-    <col min="18" max="18" width="15.9090909090909" customWidth="1"/>
+    <col min="15" max="16" width="25.8181818181818" customWidth="1"/>
+    <col min="17" max="17" width="20.8181818181818" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6363636363636" customWidth="1"/>
+    <col min="19" max="19" width="15.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1210,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1256,87 +1280,93 @@
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
       </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
+      <c r="S3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1348,51 +1378,54 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" t="b">
+        <v>36</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="b">
         <v>1</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1404,51 +1437,54 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N5">
         <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5">
+        <v>36</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1460,51 +1496,54 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>300</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6">
+        <v>36</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1516,51 +1555,54 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>120</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" t="b">
+        <v>36</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="b">
         <v>1</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>2101</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1572,51 +1614,54 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>2201</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1628,48 +1673,54 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9">
+        <v>54</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10">
-        <v>9001</v>
+        <v>2301</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1681,30 +1732,89 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>1001</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>9001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11">
         <v>100</v>
       </c>
-      <c r="O10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" t="b">
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -1209,9 +1209,9 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P11" sqref="P11"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1779,7 +1779,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>

--- a/Assets/Excel/CharacterSkill.xlsx
+++ b/Assets/Excel/CharacterSkill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="18940" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterSkill" sheetId="1" r:id="rId1"/>
@@ -1779,7 +1779,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
